--- a/InputFiles/ICDC/TC02_Canine_Study_UBC01_Biobank_NotApplicable.xlsx
+++ b/InputFiles/ICDC/TC02_Canine_Study_UBC01_Biobank_NotApplicable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCAACD6-97F1-4023-B2F3-CAC8F3FA5BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39B9A73-08C3-4EF5-9AC7-F0A01A264A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -281,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,7 +321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -427,7 +427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,20 +579,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7265625" customWidth="1"/>
-    <col min="3" max="3" width="75.7265625" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="348" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -660,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
